--- a/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.59</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.46</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,104 +550,144 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.59</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.46</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>159990</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>97.41</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003877</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国久利稳健配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>27.16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003878</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国久利稳健配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>27.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519002</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安安信消费混合</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>15.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004814</t>
+          <t>519002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合A</t>
+          <t>华安安信消费混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>18.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004815</t>
+          <t>004374</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合C</t>
+          <t>华泰保兴吉年丰混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>006642</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>华泰保兴吉年利定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006642</t>
+          <t>010963</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰保兴吉年利定期开放混合</t>
+          <t>信达澳银周期动力混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.19</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006882</t>
+          <t>005904</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰保兴健康消费混合A</t>
+          <t>华泰保兴成长优选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>77.27</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -846,26 +976,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006883</t>
+          <t>006972</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰保兴健康消费混合C</t>
+          <t>金鹰民安回报一年定期开放混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>77.27</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006972</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>37.86</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007735</t>
+          <t>004375</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
+          <t>华泰保兴吉年丰混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>37.86</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010963</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>信达澳银周期动力混合</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519117</t>
+          <t>006882</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>浦银安盛基本面400指数</t>
+          <t>华泰保兴健康消费混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>004814</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>中欧红利优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>97.96</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>006883</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>华泰保兴健康消费混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005904</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合A</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005905</t>
+          <t>007735</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合C</t>
+          <t>金鹰民安回报一年定期开放混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004374</t>
+          <t>004815</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰保兴吉年丰混合A</t>
+          <t>中欧红利优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004375</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华泰保兴吉年丰混合C</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>005905</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>华泰保兴成长优选混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>162907</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>519117</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泰信中证锐联基本面400指数（LOF）</t>
+          <t>浦银安盛基本面400指数</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5651</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5619</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1790,4 +1791,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7353</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2625</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.25</v>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4901</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.37</v>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2250,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.82</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="5">
@@ -2201,13 +2372,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2293,7 +2294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2304,17 +2305,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2324,14 +2345,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.97</v>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0858</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2340,14 +2383,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.25</v>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2356,14 +2421,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.37</v>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9254</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2372,14 +2459,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.82</v>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6649</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2388,13 +2497,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6635</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2730,7 +2731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2741,17 +2742,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2761,14 +2782,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.95</v>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3432</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2777,14 +2820,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.97</v>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1442</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2793,14 +2858,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.25</v>
       </c>
     </row>
     <row r="5">
@@ -2809,14 +2896,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.37</v>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8240</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2825,14 +2934,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.82</v>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2841,13 +2972,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>5.16</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>4.95</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.97</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.37</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>3.82</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.38</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6351</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5782</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1547,7 +2000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1717,7 +2170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2039,7 +2492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2323,7 +2776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3139,7 +3592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600166-福田汽车.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>3.37</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>5.16</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>4.95</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.97</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.37</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>3.82</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,276 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +880,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1147</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6924</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6312</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4554</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3449</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>40.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1052,7 +2017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1564,7 +2529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2000,7 +2965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2170,7 +3135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2492,7 +3457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2776,7 +3741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3590,250 +4555,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004854</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1577</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004855</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1259</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003877</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国久利稳健配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>27.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0880</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>97.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003878</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国久利稳健配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>27.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>